--- a/課題8/課題9 データ型.xlsx
+++ b/課題8/課題9 データ型.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="76">
   <si>
     <t>部署</t>
     <rPh sb="0" eb="2">
@@ -528,15 +528,59 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>DATE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20char)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR2(5char)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR2(6char)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR2(3char)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR2(4char)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>NOT NULL</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DATE</t>
+    <t>CHECK 0-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NUMBER(1,0)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NOT NULL,UNIQUE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CHAR(6)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR2(3char)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -544,7 +588,27 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>VARCHAR2(5char)</t>
+    <t>VARCHAR2(50char)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NUMBER(6,0)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NUMBER(*)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10char)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR2(7char)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10char)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -915,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -927,7 +991,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -939,13 +1003,13 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
@@ -953,7 +1017,7 @@
         <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -983,31 +1047,41 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="D10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
@@ -1024,8 +1098,12 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
@@ -1047,8 +1125,12 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
@@ -1082,22 +1164,40 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
@@ -1122,12 +1222,20 @@
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="F30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
@@ -1166,14 +1274,20 @@
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="C35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="F35" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.15">
@@ -1209,10 +1323,18 @@
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
@@ -1260,16 +1382,32 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
@@ -1319,15 +1457,33 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
